--- a/KM5c_data/ODP_Site_516.xlsx
+++ b/KM5c_data/ODP_Site_516.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,40 +420,55 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>MgCa Temperature_Original</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>MgCa Temperature_BAYMAG</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Age model reference</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Age model reference doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>PlioVAR change to age model?</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>ERSST_V5 Temperature</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>MgCa Temperature anomaly_Original - ERSST</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>MgCa Temperature anomaly_BAYMAG - ERSST</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>MgCa Coretop modelled temperature</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>MgCa Temperature anomaly_Original - Coretop</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>MgCa Temperature anomaly_BAYMAG - Coretop</t>
         </is>
@@ -513,34 +528,43 @@
         </is>
       </c>
       <c r="M2">
+        <v>24.789288925</v>
+      </c>
+      <c r="N2">
         <v>26.0532</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Karas et al. (2017)</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1038/srep39842</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="Q2">
-        <v>20.43029746</v>
-      </c>
       <c r="R2">
-        <v>5.622902540000002</v>
+        <v>20.74</v>
       </c>
       <c r="S2">
+        <v>4.049772560796445</v>
+      </c>
+      <c r="T2">
+        <v>5.313683635796444</v>
+      </c>
+      <c r="U2">
+        <v>22.0667</v>
+      </c>
+      <c r="V2">
         <v>2.722588925</v>
       </c>
-      <c r="T2">
-        <v>3.9865</v>
+      <c r="W2">
+        <v>3.986499999999999</v>
       </c>
     </row>
   </sheetData>
